--- a/Catalog of Data Usage.xlsx
+++ b/Catalog of Data Usage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\BYUI-Timeseries-Drafts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\BYUI-Timeseries-Drafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219A529E-C424-4C2B-B9B4-3F869B73128E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2FDF31-192A-46C6-BDDC-14E2162B7DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08CA0720-5E99-476D-AC5C-BE7467710550}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08CA0720-5E99-476D-AC5C-BE7467710550}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>Chapter</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>MA(q) models</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>In-Class</t>
+  </si>
+  <si>
+    <t>exchange_rates.parquet gives an excellent example of ARIMA Models - Start with euros</t>
+  </si>
+  <si>
+    <t>or USD.RUB or USD.CAD</t>
   </si>
 </sst>
 </file>
@@ -561,555 +573,717 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE6C3D-4A47-4552-9990-1EB2341EC11D}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" customWidth="1"/>
-    <col min="4" max="4" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>4</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>4</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>5</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
         <v>33</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>5</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>5</v>
       </c>
       <c r="B32" s="1">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
         <v>36</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5</v>
       </c>
       <c r="B35" s="1">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
         <v>14</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5</v>
       </c>
       <c r="B36" s="1">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>5</v>
       </c>
       <c r="B37" s="1">
         <v>5</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
         <v>37</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>6</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
         <v>38</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
         <v>39</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>6</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>6</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
